--- a/medicine/Enfance/Nikolay_Nossov/Nikolay_Nossov.xlsx
+++ b/medicine/Enfance/Nikolay_Nossov/Nikolay_Nossov.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Nikolaï Nikolaïevitch Nossov (russe : Николай Николаевич Носов, ukrainien : Микола Миколайович Носов), né le 23 novembre 1908 à Kiev – mort le 26 juillet 1976 à Moscou, est un écrivain soviétique spécialisé dans la littérature d'enfance et de jeunesse. Sa trilogie sur les aventures de Neznaïka et ses amis est particulièrement connue. Il commence sa carrière littéraire en 1938 et remporte l'Ordre de l'Étoile rouge en 1943.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">De 1927 à 1929, Nossov étudie à l'Institut d'art de Kiev (en), puis à l'Institut national de la cinématographie, où il obtient un diplôme en 1932.
 De 1932 à 1951, il travaille comme producteur de films d'animation et éducationnels, dont certains réalisés pour l'Armée rouge.
